--- a/src/excel_template/cdQC/Magnification Error format.xlsx
+++ b/src/excel_template/cdQC/Magnification Error format.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohnishi.takayuki\Desktop\maginification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohnishi.takayuki\Documents\02 pythonサンプルプログラム\tool\src\excel_template\cdQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="2780" windowWidth="23010" windowHeight="8960" tabRatio="883"/>
+    <workbookView xWindow="920" yWindow="2780" windowWidth="23010" windowHeight="8960" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="101" r:id="rId1"/>
@@ -1498,7 +1498,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1914,7 +1913,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1995,7 +1993,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2937,7 +2934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12859,7 +12856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
